--- a/04 - Persistance des données/02 - Mettre en place une base de données/03 - Remplir les tables/MarquesModeles.xlsx
+++ b/04 - Persistance des données/02 - Mettre en place une base de données/03 - Remplir les tables/MarquesModeles.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\GRP-82\Reference\04 - Persistance des données\02 - Mettre en place une base de données\03 - Remplir les tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C5CD2C47-9532-4930-AFB4-4154E9EC336C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12000"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="796" uniqueCount="413">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1639" uniqueCount="415">
   <si>
     <t xml:space="preserve">ALFA ROMEO </t>
   </si>
@@ -1275,6 +1274,12 @@
   </si>
   <si>
     <t>marque</t>
+  </si>
+  <si>
+    <t>idMarque</t>
+  </si>
+  <si>
+    <t>idModele</t>
   </si>
 </sst>
 </file>
@@ -1310,8 +1315,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1626,3419 +1634,7527 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B426"/>
+  <dimension ref="A1:J426"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>411</v>
       </c>
       <c r="B1" t="s">
         <v>412</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D1" t="s">
+        <v>412</v>
+      </c>
+      <c r="E1" t="s">
+        <v>413</v>
+      </c>
+      <c r="G1" t="s">
+        <v>414</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="I1" t="s">
+        <v>412</v>
+      </c>
+      <c r="J1" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>159</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2" s="1">
+        <v>159</v>
+      </c>
+      <c r="I2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="G3">
+        <v>2</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="G4">
+        <v>3</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="B5" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5">
+        <v>4</v>
+      </c>
+      <c r="G5">
+        <v>4</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E6">
+        <v>5</v>
+      </c>
+      <c r="G6">
+        <v>5</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
       <c r="B7" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E7">
+        <v>6</v>
+      </c>
+      <c r="G7">
+        <v>6</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
       <c r="B8" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D8" t="s">
+        <v>48</v>
+      </c>
+      <c r="E8">
+        <v>7</v>
+      </c>
+      <c r="G8">
+        <v>7</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
       <c r="B9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D9" t="s">
+        <v>66</v>
+      </c>
+      <c r="E9">
+        <v>8</v>
+      </c>
+      <c r="G9">
+        <v>8</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
       <c r="B10" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D10" t="s">
+        <v>71</v>
+      </c>
+      <c r="E10">
+        <v>9</v>
+      </c>
+      <c r="G10">
+        <v>9</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
       <c r="B11" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D11" t="s">
+        <v>76</v>
+      </c>
+      <c r="E11">
+        <v>10</v>
+      </c>
+      <c r="G11">
+        <v>10</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
       <c r="B12" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D12" t="s">
+        <v>88</v>
+      </c>
+      <c r="E12">
+        <v>11</v>
+      </c>
+      <c r="G12">
+        <v>11</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
       <c r="B13" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D13" t="s">
+        <v>103</v>
+      </c>
+      <c r="E13">
+        <v>12</v>
+      </c>
+      <c r="G13">
+        <v>12</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
       <c r="B14" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D14" t="s">
+        <v>110</v>
+      </c>
+      <c r="E14">
+        <v>13</v>
+      </c>
+      <c r="G14">
+        <v>13</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>14</v>
       </c>
       <c r="B15" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D15" t="s">
+        <v>120</v>
+      </c>
+      <c r="E15">
+        <v>14</v>
+      </c>
+      <c r="G15">
+        <v>14</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>15</v>
       </c>
       <c r="B16" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D16" t="s">
+        <v>126</v>
+      </c>
+      <c r="E16">
+        <v>15</v>
+      </c>
+      <c r="G16">
+        <v>15</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>16</v>
       </c>
       <c r="B17" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D17" t="s">
+        <v>130</v>
+      </c>
+      <c r="E17">
+        <v>16</v>
+      </c>
+      <c r="G17">
+        <v>16</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>17</v>
       </c>
       <c r="B18" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D18" t="s">
+        <v>135</v>
+      </c>
+      <c r="E18">
+        <v>17</v>
+      </c>
+      <c r="G18">
+        <v>17</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I18" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>18</v>
       </c>
       <c r="B19" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D19" t="s">
+        <v>145</v>
+      </c>
+      <c r="E19">
+        <v>18</v>
+      </c>
+      <c r="G19">
+        <v>18</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I19" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>19</v>
       </c>
       <c r="B20" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D20" t="s">
+        <v>147</v>
+      </c>
+      <c r="E20">
+        <v>19</v>
+      </c>
+      <c r="G20">
+        <v>19</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I20" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>20</v>
       </c>
       <c r="B21" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D21" t="s">
+        <v>151</v>
+      </c>
+      <c r="E21">
+        <v>20</v>
+      </c>
+      <c r="G21">
+        <v>20</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I21" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>22</v>
       </c>
       <c r="B22" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D22" t="s">
+        <v>158</v>
+      </c>
+      <c r="E22">
+        <v>21</v>
+      </c>
+      <c r="G22">
+        <v>21</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I22" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>23</v>
       </c>
       <c r="B23" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D23" t="s">
+        <v>165</v>
+      </c>
+      <c r="E23">
+        <v>22</v>
+      </c>
+      <c r="G23">
+        <v>22</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I23" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>114</v>
       </c>
       <c r="B24" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D24" t="s">
+        <v>174</v>
+      </c>
+      <c r="E24">
+        <v>23</v>
+      </c>
+      <c r="G24">
+        <v>23</v>
+      </c>
+      <c r="H24" s="1">
+        <v>114</v>
+      </c>
+      <c r="I24" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>116</v>
       </c>
       <c r="B25" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D25" t="s">
+        <v>178</v>
+      </c>
+      <c r="E25">
+        <v>24</v>
+      </c>
+      <c r="G25">
+        <v>24</v>
+      </c>
+      <c r="H25" s="1">
+        <v>116</v>
+      </c>
+      <c r="I25" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>118</v>
       </c>
       <c r="B26" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D26" t="s">
+        <v>182</v>
+      </c>
+      <c r="E26">
+        <v>25</v>
+      </c>
+      <c r="G26">
+        <v>25</v>
+      </c>
+      <c r="H26" s="1">
+        <v>118</v>
+      </c>
+      <c r="I26" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>120</v>
       </c>
       <c r="B27" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D27" t="s">
+        <v>266</v>
+      </c>
+      <c r="E27">
+        <v>26</v>
+      </c>
+      <c r="G27">
+        <v>26</v>
+      </c>
+      <c r="H27" s="1">
+        <v>120</v>
+      </c>
+      <c r="I27" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>125</v>
       </c>
       <c r="B28" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D28" t="s">
+        <v>272</v>
+      </c>
+      <c r="E28">
+        <v>27</v>
+      </c>
+      <c r="G28">
+        <v>27</v>
+      </c>
+      <c r="H28" s="1">
+        <v>125</v>
+      </c>
+      <c r="I28" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>214</v>
       </c>
       <c r="B29" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D29" t="s">
+        <v>278</v>
+      </c>
+      <c r="E29">
+        <v>28</v>
+      </c>
+      <c r="G29">
+        <v>28</v>
+      </c>
+      <c r="H29" s="1">
+        <v>214</v>
+      </c>
+      <c r="I29" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>216</v>
       </c>
       <c r="B30" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D30" t="s">
+        <v>292</v>
+      </c>
+      <c r="E30">
+        <v>29</v>
+      </c>
+      <c r="G30">
+        <v>29</v>
+      </c>
+      <c r="H30" s="1">
+        <v>216</v>
+      </c>
+      <c r="I30" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>218</v>
       </c>
       <c r="B31" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D31" t="s">
+        <v>306</v>
+      </c>
+      <c r="E31">
+        <v>30</v>
+      </c>
+      <c r="G31">
+        <v>30</v>
+      </c>
+      <c r="H31" s="1">
+        <v>218</v>
+      </c>
+      <c r="I31" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>220</v>
       </c>
       <c r="B32" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D32" t="s">
+        <v>313</v>
+      </c>
+      <c r="E32">
+        <v>31</v>
+      </c>
+      <c r="G32">
+        <v>31</v>
+      </c>
+      <c r="H32" s="1">
+        <v>220</v>
+      </c>
+      <c r="I32" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>225</v>
       </c>
       <c r="B33" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D33" t="s">
+        <v>320</v>
+      </c>
+      <c r="E33">
+        <v>32</v>
+      </c>
+      <c r="G33">
+        <v>32</v>
+      </c>
+      <c r="H33" s="1">
+        <v>225</v>
+      </c>
+      <c r="I33" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>228</v>
       </c>
       <c r="B34" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D34" t="s">
+        <v>334</v>
+      </c>
+      <c r="E34">
+        <v>33</v>
+      </c>
+      <c r="G34">
+        <v>33</v>
+      </c>
+      <c r="H34" s="1">
+        <v>228</v>
+      </c>
+      <c r="I34" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>235</v>
       </c>
       <c r="B35" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D35" t="s">
+        <v>338</v>
+      </c>
+      <c r="E35">
+        <v>34</v>
+      </c>
+      <c r="G35">
+        <v>34</v>
+      </c>
+      <c r="H35" s="1">
+        <v>235</v>
+      </c>
+      <c r="I35" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>316</v>
       </c>
       <c r="B36" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D36" t="s">
+        <v>345</v>
+      </c>
+      <c r="E36">
+        <v>35</v>
+      </c>
+      <c r="G36">
+        <v>35</v>
+      </c>
+      <c r="H36" s="1">
+        <v>316</v>
+      </c>
+      <c r="I36" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>318</v>
       </c>
       <c r="B37" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D37" t="s">
+        <v>353</v>
+      </c>
+      <c r="E37">
+        <v>36</v>
+      </c>
+      <c r="G37">
+        <v>36</v>
+      </c>
+      <c r="H37" s="1">
+        <v>318</v>
+      </c>
+      <c r="I37" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>320</v>
       </c>
       <c r="B38" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D38" t="s">
+        <v>356</v>
+      </c>
+      <c r="E38">
+        <v>37</v>
+      </c>
+      <c r="G38">
+        <v>37</v>
+      </c>
+      <c r="H38" s="1">
+        <v>320</v>
+      </c>
+      <c r="I38" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>325</v>
       </c>
       <c r="B39" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D39" t="s">
+        <v>360</v>
+      </c>
+      <c r="E39">
+        <v>38</v>
+      </c>
+      <c r="G39">
+        <v>38</v>
+      </c>
+      <c r="H39" s="1">
+        <v>325</v>
+      </c>
+      <c r="I39" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>328</v>
       </c>
       <c r="B40" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D40" t="s">
+        <v>365</v>
+      </c>
+      <c r="E40">
+        <v>39</v>
+      </c>
+      <c r="G40">
+        <v>39</v>
+      </c>
+      <c r="H40" s="1">
+        <v>328</v>
+      </c>
+      <c r="I40" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>330</v>
       </c>
       <c r="B41" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D41" t="s">
+        <v>371</v>
+      </c>
+      <c r="E41">
+        <v>40</v>
+      </c>
+      <c r="G41">
+        <v>40</v>
+      </c>
+      <c r="H41" s="1">
+        <v>330</v>
+      </c>
+      <c r="I41" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>335</v>
       </c>
       <c r="B42" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D42" t="s">
+        <v>373</v>
+      </c>
+      <c r="E42">
+        <v>41</v>
+      </c>
+      <c r="G42">
+        <v>41</v>
+      </c>
+      <c r="H42" s="1">
+        <v>335</v>
+      </c>
+      <c r="I42" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>418</v>
       </c>
       <c r="B43" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D43" t="s">
+        <v>386</v>
+      </c>
+      <c r="E43">
+        <v>42</v>
+      </c>
+      <c r="G43">
+        <v>42</v>
+      </c>
+      <c r="H43" s="1">
+        <v>418</v>
+      </c>
+      <c r="I43" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>420</v>
       </c>
       <c r="B44" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D44" t="s">
+        <v>403</v>
+      </c>
+      <c r="E44">
+        <v>43</v>
+      </c>
+      <c r="G44">
+        <v>43</v>
+      </c>
+      <c r="H44" s="1">
+        <v>420</v>
+      </c>
+      <c r="I44" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>425</v>
       </c>
       <c r="B45" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G45">
+        <v>44</v>
+      </c>
+      <c r="H45" s="1">
+        <v>425</v>
+      </c>
+      <c r="I45" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>428</v>
       </c>
       <c r="B46" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G46">
+        <v>45</v>
+      </c>
+      <c r="H46" s="1">
+        <v>428</v>
+      </c>
+      <c r="I46" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>430</v>
       </c>
       <c r="B47" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G47">
+        <v>46</v>
+      </c>
+      <c r="H47" s="1">
+        <v>430</v>
+      </c>
+      <c r="I47" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>435</v>
       </c>
       <c r="B48" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G48">
+        <v>47</v>
+      </c>
+      <c r="H48" s="1">
+        <v>435</v>
+      </c>
+      <c r="I48" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>518</v>
       </c>
       <c r="B49" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G49">
+        <v>48</v>
+      </c>
+      <c r="H49" s="1">
+        <v>518</v>
+      </c>
+      <c r="I49" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>520</v>
       </c>
       <c r="B50" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G50">
+        <v>49</v>
+      </c>
+      <c r="H50" s="1">
+        <v>520</v>
+      </c>
+      <c r="I50" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>525</v>
       </c>
       <c r="B51" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G51">
+        <v>50</v>
+      </c>
+      <c r="H51" s="1">
+        <v>525</v>
+      </c>
+      <c r="I51" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>528</v>
       </c>
       <c r="B52" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G52">
+        <v>51</v>
+      </c>
+      <c r="H52" s="1">
+        <v>528</v>
+      </c>
+      <c r="I52" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>530</v>
       </c>
       <c r="B53" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G53">
+        <v>52</v>
+      </c>
+      <c r="H53" s="1">
+        <v>530</v>
+      </c>
+      <c r="I53" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>535</v>
       </c>
       <c r="B54" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G54">
+        <v>53</v>
+      </c>
+      <c r="H54" s="1">
+        <v>535</v>
+      </c>
+      <c r="I54" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>550</v>
       </c>
       <c r="B55" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G55">
+        <v>54</v>
+      </c>
+      <c r="H55" s="1">
+        <v>550</v>
+      </c>
+      <c r="I55" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>640</v>
       </c>
       <c r="B56" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G56">
+        <v>55</v>
+      </c>
+      <c r="H56" s="1">
+        <v>640</v>
+      </c>
+      <c r="I56" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>650</v>
       </c>
       <c r="B57" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G57">
+        <v>56</v>
+      </c>
+      <c r="H57" s="1">
+        <v>650</v>
+      </c>
+      <c r="I57" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>730</v>
       </c>
       <c r="B58" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G58">
+        <v>57</v>
+      </c>
+      <c r="H58" s="1">
+        <v>730</v>
+      </c>
+      <c r="I58" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>740</v>
       </c>
       <c r="B59" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G59">
+        <v>58</v>
+      </c>
+      <c r="H59" s="1">
+        <v>740</v>
+      </c>
+      <c r="I59" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>750</v>
       </c>
       <c r="B60" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G60">
+        <v>59</v>
+      </c>
+      <c r="H60" s="1">
+        <v>750</v>
+      </c>
+      <c r="I60" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>760</v>
       </c>
       <c r="B61" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G61">
+        <v>60</v>
+      </c>
+      <c r="H61" s="1">
+        <v>760</v>
+      </c>
+      <c r="I61" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>25</v>
       </c>
       <c r="B62" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G62">
+        <v>61</v>
+      </c>
+      <c r="H62" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I62" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>26</v>
       </c>
       <c r="B63" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G63">
+        <v>62</v>
+      </c>
+      <c r="H63" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I63" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>27</v>
       </c>
       <c r="B64" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G64">
+        <v>63</v>
+      </c>
+      <c r="H64" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I64" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>28</v>
       </c>
       <c r="B65" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G65">
+        <v>64</v>
+      </c>
+      <c r="H65" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I65" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>29</v>
       </c>
       <c r="B66" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G66">
+        <v>65</v>
+      </c>
+      <c r="H66" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I66" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>30</v>
       </c>
       <c r="B67" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G67">
+        <v>66</v>
+      </c>
+      <c r="H67" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I67" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>31</v>
       </c>
       <c r="B68" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G68">
+        <v>67</v>
+      </c>
+      <c r="H68" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I68" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>32</v>
       </c>
       <c r="B69" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G69">
+        <v>68</v>
+      </c>
+      <c r="H69" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I69" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>33</v>
       </c>
       <c r="B70" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G70">
+        <v>69</v>
+      </c>
+      <c r="H70" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I70" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>34</v>
       </c>
       <c r="B71" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G71">
+        <v>70</v>
+      </c>
+      <c r="H71" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I71" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>35</v>
       </c>
       <c r="B72" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G72">
+        <v>71</v>
+      </c>
+      <c r="H72" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I72" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>36</v>
       </c>
       <c r="B73" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G73">
+        <v>72</v>
+      </c>
+      <c r="H73" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I73" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>37</v>
       </c>
       <c r="B74" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G74">
+        <v>73</v>
+      </c>
+      <c r="H74" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I74" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>38</v>
       </c>
       <c r="B75" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G75">
+        <v>74</v>
+      </c>
+      <c r="H75" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I75" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>39</v>
       </c>
       <c r="B76" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G76">
+        <v>75</v>
+      </c>
+      <c r="H76" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I76" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>41</v>
       </c>
       <c r="B77" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G77">
+        <v>76</v>
+      </c>
+      <c r="H77" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I77" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>42</v>
       </c>
       <c r="B78" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G78">
+        <v>77</v>
+      </c>
+      <c r="H78" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I78" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>43</v>
       </c>
       <c r="B79" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G79">
+        <v>78</v>
+      </c>
+      <c r="H79" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I79" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>44</v>
       </c>
       <c r="B80" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G80">
+        <v>79</v>
+      </c>
+      <c r="H80" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I80" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>46</v>
       </c>
       <c r="B81" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G81">
+        <v>80</v>
+      </c>
+      <c r="H81" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I81" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>47</v>
       </c>
       <c r="B82" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G82">
+        <v>81</v>
+      </c>
+      <c r="H82" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I82" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>49</v>
       </c>
       <c r="B83" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G83">
+        <v>82</v>
+      </c>
+      <c r="H83" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I83" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>50</v>
       </c>
       <c r="B84" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G84">
+        <v>83</v>
+      </c>
+      <c r="H84" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I84" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>51</v>
       </c>
       <c r="B85" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G85">
+        <v>84</v>
+      </c>
+      <c r="H85" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I85" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>52</v>
       </c>
       <c r="B86" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G86">
+        <v>85</v>
+      </c>
+      <c r="H86" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I86" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>53</v>
       </c>
       <c r="B87" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G87">
+        <v>86</v>
+      </c>
+      <c r="H87" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="I87" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>54</v>
       </c>
       <c r="B88" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G88">
+        <v>87</v>
+      </c>
+      <c r="H88" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I88" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>55</v>
       </c>
       <c r="B89" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G89">
+        <v>88</v>
+      </c>
+      <c r="H89" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="I89" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>56</v>
       </c>
       <c r="B90" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G90">
+        <v>89</v>
+      </c>
+      <c r="H90" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I90" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>57</v>
       </c>
       <c r="B91" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G91">
+        <v>90</v>
+      </c>
+      <c r="H91" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I91" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>58</v>
       </c>
       <c r="B92" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G92">
+        <v>91</v>
+      </c>
+      <c r="H92" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I92" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>59</v>
       </c>
       <c r="B93" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G93">
+        <v>92</v>
+      </c>
+      <c r="H93" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I93" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>60</v>
       </c>
       <c r="B94" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G94">
+        <v>93</v>
+      </c>
+      <c r="H94" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I94" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>61</v>
       </c>
       <c r="B95" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G95">
+        <v>94</v>
+      </c>
+      <c r="H95" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I95" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>62</v>
       </c>
       <c r="B96" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G96">
+        <v>95</v>
+      </c>
+      <c r="H96" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="I96" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>63</v>
       </c>
       <c r="B97" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G97">
+        <v>96</v>
+      </c>
+      <c r="H97" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="I97" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>64</v>
       </c>
       <c r="B98" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G98">
+        <v>97</v>
+      </c>
+      <c r="H98" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I98" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>65</v>
       </c>
       <c r="B99" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G99">
+        <v>98</v>
+      </c>
+      <c r="H99" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I99" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>67</v>
       </c>
       <c r="B100" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G100">
+        <v>99</v>
+      </c>
+      <c r="H100" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="I100" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>68</v>
       </c>
       <c r="B101" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G101">
+        <v>100</v>
+      </c>
+      <c r="H101" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I101" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>69</v>
       </c>
       <c r="B102" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G102">
+        <v>101</v>
+      </c>
+      <c r="H102" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="I102" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>70</v>
       </c>
       <c r="B103" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G103">
+        <v>102</v>
+      </c>
+      <c r="H103" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="I103" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>458</v>
       </c>
       <c r="B104" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G104">
+        <v>103</v>
+      </c>
+      <c r="H104" s="1">
+        <v>458</v>
+      </c>
+      <c r="I104" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>72</v>
       </c>
       <c r="B105" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G105">
+        <v>104</v>
+      </c>
+      <c r="H105" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="I105" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>73</v>
       </c>
       <c r="B106" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G106">
+        <v>105</v>
+      </c>
+      <c r="H106" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="I106" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>74</v>
       </c>
       <c r="B107" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G107">
+        <v>106</v>
+      </c>
+      <c r="H107" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="I107" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>75</v>
       </c>
       <c r="B108" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G108">
+        <v>107</v>
+      </c>
+      <c r="H108" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="I108" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>500</v>
       </c>
       <c r="B109" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G109">
+        <v>108</v>
+      </c>
+      <c r="H109" s="1">
+        <v>500</v>
+      </c>
+      <c r="I109" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>77</v>
       </c>
       <c r="B110" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G110">
+        <v>109</v>
+      </c>
+      <c r="H110" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="I110" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>78</v>
       </c>
       <c r="B111" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G111">
+        <v>110</v>
+      </c>
+      <c r="H111" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="I111" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>79</v>
       </c>
       <c r="B112" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G112">
+        <v>111</v>
+      </c>
+      <c r="H112" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="I112" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>80</v>
       </c>
       <c r="B113" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G113">
+        <v>112</v>
+      </c>
+      <c r="H113" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="I113" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>81</v>
       </c>
       <c r="B114" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G114">
+        <v>113</v>
+      </c>
+      <c r="H114" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="I114" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>82</v>
       </c>
       <c r="B115" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G115">
+        <v>114</v>
+      </c>
+      <c r="H115" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="I115" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>83</v>
       </c>
       <c r="B116" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G116">
+        <v>115</v>
+      </c>
+      <c r="H116" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="I116" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>84</v>
       </c>
       <c r="B117" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G117">
+        <v>116</v>
+      </c>
+      <c r="H117" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I117" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>85</v>
       </c>
       <c r="B118" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G118">
+        <v>117</v>
+      </c>
+      <c r="H118" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I118" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>86</v>
       </c>
       <c r="B119" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G119">
+        <v>118</v>
+      </c>
+      <c r="H119" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I119" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>87</v>
       </c>
       <c r="B120" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G120">
+        <v>119</v>
+      </c>
+      <c r="H120" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="I120" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>89</v>
       </c>
       <c r="B121" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G121">
+        <v>120</v>
+      </c>
+      <c r="H121" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="I121" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>90</v>
       </c>
       <c r="B122" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G122">
+        <v>121</v>
+      </c>
+      <c r="H122" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="I122" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>91</v>
       </c>
       <c r="B123" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G123">
+        <v>122</v>
+      </c>
+      <c r="H123" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="I123" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>92</v>
       </c>
       <c r="B124" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G124">
+        <v>123</v>
+      </c>
+      <c r="H124" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="I124" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>93</v>
       </c>
       <c r="B125" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G125">
+        <v>124</v>
+      </c>
+      <c r="H125" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="I125" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>94</v>
       </c>
       <c r="B126" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G126">
+        <v>125</v>
+      </c>
+      <c r="H126" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="I126" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>95</v>
       </c>
       <c r="B127" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G127">
+        <v>126</v>
+      </c>
+      <c r="H127" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="I127" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>96</v>
       </c>
       <c r="B128" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G128">
+        <v>127</v>
+      </c>
+      <c r="H128" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="I128" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>97</v>
       </c>
       <c r="B129" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G129">
+        <v>128</v>
+      </c>
+      <c r="H129" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="I129" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>98</v>
       </c>
       <c r="B130" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G130">
+        <v>129</v>
+      </c>
+      <c r="H130" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="I130" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>99</v>
       </c>
       <c r="B131" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G131">
+        <v>130</v>
+      </c>
+      <c r="H131" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="I131" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>100</v>
       </c>
       <c r="B132" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G132">
+        <v>131</v>
+      </c>
+      <c r="H132" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="I132" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>101</v>
       </c>
       <c r="B133" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G133">
+        <v>132</v>
+      </c>
+      <c r="H133" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="I133" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>102</v>
       </c>
       <c r="B134" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G134">
+        <v>133</v>
+      </c>
+      <c r="H134" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="I134" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>104</v>
       </c>
       <c r="B135" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G135">
+        <v>134</v>
+      </c>
+      <c r="H135" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="I135" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>105</v>
       </c>
       <c r="B136" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G136">
+        <v>135</v>
+      </c>
+      <c r="H136" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="I136" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>106</v>
       </c>
       <c r="B137" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G137">
+        <v>136</v>
+      </c>
+      <c r="H137" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="I137" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>107</v>
       </c>
       <c r="B138" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G138">
+        <v>137</v>
+      </c>
+      <c r="H138" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="I138" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>108</v>
       </c>
       <c r="B139" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G139">
+        <v>138</v>
+      </c>
+      <c r="H139" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="I139" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>109</v>
       </c>
       <c r="B140" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G140">
+        <v>139</v>
+      </c>
+      <c r="H140" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="I140" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>111</v>
       </c>
       <c r="B141" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G141">
+        <v>140</v>
+      </c>
+      <c r="H141" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="I141" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>112</v>
       </c>
       <c r="B142" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G142">
+        <v>141</v>
+      </c>
+      <c r="H142" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="I142" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>113</v>
       </c>
       <c r="B143" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G143">
+        <v>142</v>
+      </c>
+      <c r="H143" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="I143" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>114</v>
       </c>
       <c r="B144" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G144">
+        <v>143</v>
+      </c>
+      <c r="H144" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="I144" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>115</v>
       </c>
       <c r="B145" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G145">
+        <v>144</v>
+      </c>
+      <c r="H145" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="I145" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>116</v>
       </c>
       <c r="B146" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G146">
+        <v>145</v>
+      </c>
+      <c r="H146" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="I146" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>117</v>
       </c>
       <c r="B147" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G147">
+        <v>146</v>
+      </c>
+      <c r="H147" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="I147" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>118</v>
       </c>
       <c r="B148" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G148">
+        <v>147</v>
+      </c>
+      <c r="H148" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="I148" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>119</v>
       </c>
       <c r="B149" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G149">
+        <v>148</v>
+      </c>
+      <c r="H149" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="I149" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>121</v>
       </c>
       <c r="B150" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G150">
+        <v>149</v>
+      </c>
+      <c r="H150" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="I150" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>122</v>
       </c>
       <c r="B151" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G151">
+        <v>150</v>
+      </c>
+      <c r="H151" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="I151" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>123</v>
       </c>
       <c r="B152" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G152">
+        <v>151</v>
+      </c>
+      <c r="H152" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="I152" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>124</v>
       </c>
       <c r="B153" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G153">
+        <v>152</v>
+      </c>
+      <c r="H153" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="I153" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>125</v>
       </c>
       <c r="B154" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G154">
+        <v>153</v>
+      </c>
+      <c r="H154" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="I154" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>127</v>
       </c>
       <c r="B155" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G155">
+        <v>154</v>
+      </c>
+      <c r="H155" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="I155" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>128</v>
       </c>
       <c r="B156" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G156">
+        <v>155</v>
+      </c>
+      <c r="H156" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="I156" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>129</v>
       </c>
       <c r="B157" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G157">
+        <v>156</v>
+      </c>
+      <c r="H157" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="I157" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>131</v>
       </c>
       <c r="B158" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G158">
+        <v>157</v>
+      </c>
+      <c r="H158" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="I158" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>132</v>
       </c>
       <c r="B159" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G159">
+        <v>158</v>
+      </c>
+      <c r="H159" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="I159" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>133</v>
       </c>
       <c r="B160" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G160">
+        <v>159</v>
+      </c>
+      <c r="H160" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="I160" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>134</v>
       </c>
       <c r="B161" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G161">
+        <v>160</v>
+      </c>
+      <c r="H161" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="I161" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>136</v>
       </c>
       <c r="B162" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G162">
+        <v>161</v>
+      </c>
+      <c r="H162" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="I162" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>137</v>
       </c>
       <c r="B163" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G163">
+        <v>162</v>
+      </c>
+      <c r="H163" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="I163" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>138</v>
       </c>
       <c r="B164" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G164">
+        <v>163</v>
+      </c>
+      <c r="H164" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="I164" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>139</v>
       </c>
       <c r="B165" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G165">
+        <v>164</v>
+      </c>
+      <c r="H165" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="I165" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>140</v>
       </c>
       <c r="B166" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G166">
+        <v>165</v>
+      </c>
+      <c r="H166" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="I166" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>141</v>
       </c>
       <c r="B167" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G167">
+        <v>166</v>
+      </c>
+      <c r="H167" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="I167" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>142</v>
       </c>
       <c r="B168" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G168">
+        <v>167</v>
+      </c>
+      <c r="H168" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="I168" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>143</v>
       </c>
       <c r="B169" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G169">
+        <v>168</v>
+      </c>
+      <c r="H169" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="I169" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>144</v>
       </c>
       <c r="B170" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G170">
+        <v>169</v>
+      </c>
+      <c r="H170" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="I170" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>146</v>
       </c>
       <c r="B171" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G171">
+        <v>170</v>
+      </c>
+      <c r="H171" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="I171" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>148</v>
       </c>
       <c r="B172" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G172">
+        <v>171</v>
+      </c>
+      <c r="H172" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="I172" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>149</v>
       </c>
       <c r="B173" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G173">
+        <v>172</v>
+      </c>
+      <c r="H173" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="I173" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>150</v>
       </c>
       <c r="B174" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G174">
+        <v>173</v>
+      </c>
+      <c r="H174" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="I174" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>152</v>
       </c>
       <c r="B175" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G175">
+        <v>174</v>
+      </c>
+      <c r="H175" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="I175" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>153</v>
       </c>
       <c r="B176" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G176">
+        <v>175</v>
+      </c>
+      <c r="H176" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="I176" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>154</v>
       </c>
       <c r="B177" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G177">
+        <v>176</v>
+      </c>
+      <c r="H177" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="I177" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>155</v>
       </c>
       <c r="B178" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G178">
+        <v>177</v>
+      </c>
+      <c r="H178" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="I178" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>156</v>
       </c>
       <c r="B179" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G179">
+        <v>178</v>
+      </c>
+      <c r="H179" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="I179" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>157</v>
       </c>
       <c r="B180" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G180">
+        <v>179</v>
+      </c>
+      <c r="H180" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="I180" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>159</v>
       </c>
       <c r="B181" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G181">
+        <v>180</v>
+      </c>
+      <c r="H181" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="I181" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>160</v>
       </c>
       <c r="B182" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G182">
+        <v>181</v>
+      </c>
+      <c r="H182" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="I182" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>161</v>
       </c>
       <c r="B183" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G183">
+        <v>182</v>
+      </c>
+      <c r="H183" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="I183" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>162</v>
       </c>
       <c r="B184" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G184">
+        <v>183</v>
+      </c>
+      <c r="H184" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="I184" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>163</v>
       </c>
       <c r="B185" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G185">
+        <v>184</v>
+      </c>
+      <c r="H185" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="I185" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>164</v>
       </c>
       <c r="B186" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G186">
+        <v>185</v>
+      </c>
+      <c r="H186" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="I186" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>166</v>
       </c>
       <c r="B187" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G187">
+        <v>186</v>
+      </c>
+      <c r="H187" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="I187" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>167</v>
       </c>
       <c r="B188" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G188">
+        <v>187</v>
+      </c>
+      <c r="H188" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="I188" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>168</v>
       </c>
       <c r="B189" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G189">
+        <v>188</v>
+      </c>
+      <c r="H189" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="I189" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>169</v>
       </c>
       <c r="B190" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G190">
+        <v>189</v>
+      </c>
+      <c r="H190" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="I190" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>170</v>
       </c>
       <c r="B191" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G191">
+        <v>190</v>
+      </c>
+      <c r="H191" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="I191" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>171</v>
       </c>
       <c r="B192" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G192">
+        <v>191</v>
+      </c>
+      <c r="H192" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="I192" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>172</v>
       </c>
       <c r="B193" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G193">
+        <v>192</v>
+      </c>
+      <c r="H193" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="I193" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>173</v>
       </c>
       <c r="B194" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G194">
+        <v>193</v>
+      </c>
+      <c r="H194" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="I194" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>175</v>
       </c>
       <c r="B195" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G195">
+        <v>194</v>
+      </c>
+      <c r="H195" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="I195" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>176</v>
       </c>
       <c r="B196" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G196">
+        <v>195</v>
+      </c>
+      <c r="H196" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="I196" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>177</v>
       </c>
       <c r="B197" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G197">
+        <v>196</v>
+      </c>
+      <c r="H197" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="I197" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>2</v>
       </c>
       <c r="B198" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G198">
+        <v>197</v>
+      </c>
+      <c r="H198" s="1">
+        <v>2</v>
+      </c>
+      <c r="I198" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>3</v>
       </c>
       <c r="B199" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G199">
+        <v>198</v>
+      </c>
+      <c r="H199" s="1">
+        <v>3</v>
+      </c>
+      <c r="I199" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>5</v>
       </c>
       <c r="B200" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G200">
+        <v>199</v>
+      </c>
+      <c r="H200" s="1">
+        <v>5</v>
+      </c>
+      <c r="I200" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>6</v>
       </c>
       <c r="B201" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G201">
+        <v>200</v>
+      </c>
+      <c r="H201" s="1">
+        <v>6</v>
+      </c>
+      <c r="I201" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>179</v>
       </c>
       <c r="B202" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G202">
+        <v>201</v>
+      </c>
+      <c r="H202" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="I202" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>180</v>
       </c>
       <c r="B203" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G203">
+        <v>202</v>
+      </c>
+      <c r="H203" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="I203" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>181</v>
       </c>
       <c r="B204" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G204">
+        <v>203</v>
+      </c>
+      <c r="H204" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="I204" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>183</v>
       </c>
       <c r="B205" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G205">
+        <v>204</v>
+      </c>
+      <c r="H205" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="I205" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>184</v>
       </c>
       <c r="B206" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G206">
+        <v>205</v>
+      </c>
+      <c r="H206" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="I206" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>185</v>
       </c>
       <c r="B207" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G207">
+        <v>206</v>
+      </c>
+      <c r="H207" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="I207" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>186</v>
       </c>
       <c r="B208" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G208">
+        <v>207</v>
+      </c>
+      <c r="H208" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="I208" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>187</v>
       </c>
       <c r="B209" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G209">
+        <v>208</v>
+      </c>
+      <c r="H209" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="I209" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>188</v>
       </c>
       <c r="B210" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G210">
+        <v>209</v>
+      </c>
+      <c r="H210" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="I210" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>189</v>
       </c>
       <c r="B211" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G211">
+        <v>210</v>
+      </c>
+      <c r="H211" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="I211" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>190</v>
       </c>
       <c r="B212" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G212">
+        <v>211</v>
+      </c>
+      <c r="H212" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="I212" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>191</v>
       </c>
       <c r="B213" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G213">
+        <v>212</v>
+      </c>
+      <c r="H213" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="I213" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>192</v>
       </c>
       <c r="B214" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G214">
+        <v>213</v>
+      </c>
+      <c r="H214" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="I214" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>193</v>
       </c>
       <c r="B215" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G215">
+        <v>214</v>
+      </c>
+      <c r="H215" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="I215" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>194</v>
       </c>
       <c r="B216" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G216">
+        <v>215</v>
+      </c>
+      <c r="H216" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="I216" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>195</v>
       </c>
       <c r="B217" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G217">
+        <v>216</v>
+      </c>
+      <c r="H217" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="I217" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>196</v>
       </c>
       <c r="B218" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G218">
+        <v>217</v>
+      </c>
+      <c r="H218" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="I218" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>197</v>
       </c>
       <c r="B219" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G219">
+        <v>218</v>
+      </c>
+      <c r="H219" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="I219" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>198</v>
       </c>
       <c r="B220" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G220">
+        <v>219</v>
+      </c>
+      <c r="H220" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="I220" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>199</v>
       </c>
       <c r="B221" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G221">
+        <v>220</v>
+      </c>
+      <c r="H221" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="I221" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>200</v>
       </c>
       <c r="B222" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G222">
+        <v>221</v>
+      </c>
+      <c r="H222" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="I222" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>201</v>
       </c>
       <c r="B223" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G223">
+        <v>222</v>
+      </c>
+      <c r="H223" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="I223" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>202</v>
       </c>
       <c r="B224" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G224">
+        <v>223</v>
+      </c>
+      <c r="H224" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="I224" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>203</v>
       </c>
       <c r="B225" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G225">
+        <v>224</v>
+      </c>
+      <c r="H225" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="I225" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>204</v>
       </c>
       <c r="B226" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G226">
+        <v>225</v>
+      </c>
+      <c r="H226" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="I226" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>205</v>
       </c>
       <c r="B227" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G227">
+        <v>226</v>
+      </c>
+      <c r="H227" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="I227" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>206</v>
       </c>
       <c r="B228" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G228">
+        <v>227</v>
+      </c>
+      <c r="H228" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="I228" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>207</v>
       </c>
       <c r="B229" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G229">
+        <v>228</v>
+      </c>
+      <c r="H229" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="I229" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="230" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>208</v>
       </c>
       <c r="B230" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G230">
+        <v>229</v>
+      </c>
+      <c r="H230" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="I230" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="231" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>209</v>
       </c>
       <c r="B231" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G231">
+        <v>230</v>
+      </c>
+      <c r="H231" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="I231" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="232" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>210</v>
       </c>
       <c r="B232" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G232">
+        <v>231</v>
+      </c>
+      <c r="H232" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="I232" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="233" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>211</v>
       </c>
       <c r="B233" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G233">
+        <v>232</v>
+      </c>
+      <c r="H233" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="I233" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="234" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>212</v>
       </c>
       <c r="B234" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G234">
+        <v>233</v>
+      </c>
+      <c r="H234" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="I234" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="235" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>213</v>
       </c>
       <c r="B235" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G235">
+        <v>234</v>
+      </c>
+      <c r="H235" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="I235" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="236" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>214</v>
       </c>
       <c r="B236" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G236">
+        <v>235</v>
+      </c>
+      <c r="H236" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="I236" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="237" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>215</v>
       </c>
       <c r="B237" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G237">
+        <v>236</v>
+      </c>
+      <c r="H237" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="I237" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="238" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>216</v>
       </c>
       <c r="B238" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G238">
+        <v>237</v>
+      </c>
+      <c r="H238" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="I238" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="239" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>217</v>
       </c>
       <c r="B239" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G239">
+        <v>238</v>
+      </c>
+      <c r="H239" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="I239" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="240" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>218</v>
       </c>
       <c r="B240" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G240">
+        <v>239</v>
+      </c>
+      <c r="H240" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="I240" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="241" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>219</v>
       </c>
       <c r="B241" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G241">
+        <v>240</v>
+      </c>
+      <c r="H241" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="I241" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="242" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>220</v>
       </c>
       <c r="B242" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G242">
+        <v>241</v>
+      </c>
+      <c r="H242" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="I242" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="243" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>221</v>
       </c>
       <c r="B243" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G243">
+        <v>242</v>
+      </c>
+      <c r="H243" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="I243" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="244" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>222</v>
       </c>
       <c r="B244" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G244">
+        <v>243</v>
+      </c>
+      <c r="H244" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="I244" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="245" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>223</v>
       </c>
       <c r="B245" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G245">
+        <v>244</v>
+      </c>
+      <c r="H245" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="I245" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="246" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>224</v>
       </c>
       <c r="B246" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G246">
+        <v>245</v>
+      </c>
+      <c r="H246" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="I246" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="247" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>225</v>
       </c>
       <c r="B247" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G247">
+        <v>246</v>
+      </c>
+      <c r="H247" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="I247" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="248" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>226</v>
       </c>
       <c r="B248" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G248">
+        <v>247</v>
+      </c>
+      <c r="H248" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="I248" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="249" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>227</v>
       </c>
       <c r="B249" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G249">
+        <v>248</v>
+      </c>
+      <c r="H249" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="I249" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="250" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>228</v>
       </c>
       <c r="B250" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G250">
+        <v>249</v>
+      </c>
+      <c r="H250" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="I250" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="251" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>229</v>
       </c>
       <c r="B251" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G251">
+        <v>250</v>
+      </c>
+      <c r="H251" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="I251" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="252" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>230</v>
       </c>
       <c r="B252" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G252">
+        <v>251</v>
+      </c>
+      <c r="H252" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="I252" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="253" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>231</v>
       </c>
       <c r="B253" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G253">
+        <v>252</v>
+      </c>
+      <c r="H253" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="I253" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="254" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>232</v>
       </c>
       <c r="B254" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G254">
+        <v>253</v>
+      </c>
+      <c r="H254" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="I254" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="255" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>233</v>
       </c>
       <c r="B255" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G255">
+        <v>254</v>
+      </c>
+      <c r="H255" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="I255" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="256" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>234</v>
       </c>
       <c r="B256" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G256">
+        <v>255</v>
+      </c>
+      <c r="H256" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="I256" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="257" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>235</v>
       </c>
       <c r="B257" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G257">
+        <v>256</v>
+      </c>
+      <c r="H257" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="I257" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="258" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>236</v>
       </c>
       <c r="B258" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G258">
+        <v>257</v>
+      </c>
+      <c r="H258" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="I258" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="259" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>237</v>
       </c>
       <c r="B259" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G259">
+        <v>258</v>
+      </c>
+      <c r="H259" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="I259" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="260" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>238</v>
       </c>
       <c r="B260" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G260">
+        <v>259</v>
+      </c>
+      <c r="H260" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="I260" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="261" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>239</v>
       </c>
       <c r="B261" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G261">
+        <v>260</v>
+      </c>
+      <c r="H261" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="I261" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="262" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>240</v>
       </c>
       <c r="B262" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G262">
+        <v>261</v>
+      </c>
+      <c r="H262" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="I262" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="263" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>241</v>
       </c>
       <c r="B263" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G263">
+        <v>262</v>
+      </c>
+      <c r="H263" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="I263" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="264" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>242</v>
       </c>
       <c r="B264" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G264">
+        <v>263</v>
+      </c>
+      <c r="H264" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="I264" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="265" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>243</v>
       </c>
       <c r="B265" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G265">
+        <v>264</v>
+      </c>
+      <c r="H265" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="I265" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="266" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>244</v>
       </c>
       <c r="B266" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G266">
+        <v>265</v>
+      </c>
+      <c r="H266" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="I266" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="267" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>245</v>
       </c>
       <c r="B267" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G267">
+        <v>266</v>
+      </c>
+      <c r="H267" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="I267" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="268" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>246</v>
       </c>
       <c r="B268" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G268">
+        <v>267</v>
+      </c>
+      <c r="H268" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="I268" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="269" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>247</v>
       </c>
       <c r="B269" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G269">
+        <v>268</v>
+      </c>
+      <c r="H269" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="I269" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="270" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>248</v>
       </c>
       <c r="B270" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G270">
+        <v>269</v>
+      </c>
+      <c r="H270" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="I270" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="271" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>249</v>
       </c>
       <c r="B271" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G271">
+        <v>270</v>
+      </c>
+      <c r="H271" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="I271" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="272" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>250</v>
       </c>
       <c r="B272" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G272">
+        <v>271</v>
+      </c>
+      <c r="H272" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="I272" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="273" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>251</v>
       </c>
       <c r="B273" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G273">
+        <v>272</v>
+      </c>
+      <c r="H273" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="I273" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="274" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>252</v>
       </c>
       <c r="B274" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G274">
+        <v>273</v>
+      </c>
+      <c r="H274" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="I274" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="275" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>253</v>
       </c>
       <c r="B275" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G275">
+        <v>274</v>
+      </c>
+      <c r="H275" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="I275" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="276" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>254</v>
       </c>
       <c r="B276" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G276">
+        <v>275</v>
+      </c>
+      <c r="H276" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="I276" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="277" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>255</v>
       </c>
       <c r="B277" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G277">
+        <v>276</v>
+      </c>
+      <c r="H277" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="I277" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="278" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>256</v>
       </c>
       <c r="B278" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G278">
+        <v>277</v>
+      </c>
+      <c r="H278" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="I278" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="279" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>257</v>
       </c>
       <c r="B279" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G279">
+        <v>278</v>
+      </c>
+      <c r="H279" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="I279" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="280" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>258</v>
       </c>
       <c r="B280" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G280">
+        <v>279</v>
+      </c>
+      <c r="H280" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="I280" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="281" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>259</v>
       </c>
       <c r="B281" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G281">
+        <v>280</v>
+      </c>
+      <c r="H281" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="I281" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="282" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>260</v>
       </c>
       <c r="B282" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G282">
+        <v>281</v>
+      </c>
+      <c r="H282" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="I282" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="283" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>261</v>
       </c>
       <c r="B283" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G283">
+        <v>282</v>
+      </c>
+      <c r="H283" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="I283" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="284" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>262</v>
       </c>
       <c r="B284" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G284">
+        <v>283</v>
+      </c>
+      <c r="H284" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="I284" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="285" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>263</v>
       </c>
       <c r="B285" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G285">
+        <v>284</v>
+      </c>
+      <c r="H285" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="I285" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="286" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>264</v>
       </c>
       <c r="B286" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G286">
+        <v>285</v>
+      </c>
+      <c r="H286" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="I286" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="287" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>265</v>
       </c>
       <c r="B287" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G287">
+        <v>286</v>
+      </c>
+      <c r="H287" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="I287" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="288" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>267</v>
       </c>
       <c r="B288" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G288">
+        <v>287</v>
+      </c>
+      <c r="H288" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="I288" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="289" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>268</v>
       </c>
       <c r="B289" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G289">
+        <v>288</v>
+      </c>
+      <c r="H289" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="I289" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="290" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>266</v>
       </c>
       <c r="B290" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G290">
+        <v>289</v>
+      </c>
+      <c r="H290" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="I290" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="291" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>269</v>
       </c>
       <c r="B291" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G291">
+        <v>290</v>
+      </c>
+      <c r="H291" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="I291" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="292" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>270</v>
       </c>
       <c r="B292" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G292">
+        <v>291</v>
+      </c>
+      <c r="H292" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="I292" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="293" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>271</v>
       </c>
       <c r="B293" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G293">
+        <v>292</v>
+      </c>
+      <c r="H293" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="I293" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="294" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>273</v>
       </c>
       <c r="B294" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G294">
+        <v>293</v>
+      </c>
+      <c r="H294" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="I294" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="295" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>274</v>
       </c>
       <c r="B295" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G295">
+        <v>294</v>
+      </c>
+      <c r="H295" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="I295" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="296" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>275</v>
       </c>
       <c r="B296" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G296">
+        <v>295</v>
+      </c>
+      <c r="H296" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="I296" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="297" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>276</v>
       </c>
       <c r="B297" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G297">
+        <v>296</v>
+      </c>
+      <c r="H297" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="I297" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="298" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>277</v>
       </c>
       <c r="B298" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G298">
+        <v>297</v>
+      </c>
+      <c r="H298" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="I298" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="299" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>279</v>
       </c>
       <c r="B299" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G299">
+        <v>298</v>
+      </c>
+      <c r="H299" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="I299" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="300" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>280</v>
       </c>
       <c r="B300" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G300">
+        <v>299</v>
+      </c>
+      <c r="H300" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="I300" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="301" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>281</v>
       </c>
       <c r="B301" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G301">
+        <v>300</v>
+      </c>
+      <c r="H301" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="I301" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="302" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>282</v>
       </c>
       <c r="B302" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G302">
+        <v>301</v>
+      </c>
+      <c r="H302" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="I302" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="303" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>283</v>
       </c>
       <c r="B303" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G303">
+        <v>302</v>
+      </c>
+      <c r="H303" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="I303" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="304" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>284</v>
       </c>
       <c r="B304" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G304">
+        <v>303</v>
+      </c>
+      <c r="H304" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="I304" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="305" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>285</v>
       </c>
       <c r="B305" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G305">
+        <v>304</v>
+      </c>
+      <c r="H305" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="I305" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="306" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>286</v>
       </c>
       <c r="B306" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G306">
+        <v>305</v>
+      </c>
+      <c r="H306" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="I306" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="307" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>287</v>
       </c>
       <c r="B307" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G307">
+        <v>306</v>
+      </c>
+      <c r="H307" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="I307" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="308" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>288</v>
       </c>
       <c r="B308" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G308">
+        <v>307</v>
+      </c>
+      <c r="H308" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="I308" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="309" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>289</v>
       </c>
       <c r="B309" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G309">
+        <v>308</v>
+      </c>
+      <c r="H309" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="I309" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="310" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>290</v>
       </c>
       <c r="B310" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G310">
+        <v>309</v>
+      </c>
+      <c r="H310" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="I310" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="311" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>291</v>
       </c>
       <c r="B311" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G311">
+        <v>310</v>
+      </c>
+      <c r="H311" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="I311" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="312" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>293</v>
       </c>
       <c r="B312" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="313" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G312">
+        <v>311</v>
+      </c>
+      <c r="H312" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="I312" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="313" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>294</v>
       </c>
       <c r="B313" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G313">
+        <v>312</v>
+      </c>
+      <c r="H313" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="I313" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="314" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>295</v>
       </c>
       <c r="B314" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="315" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G314">
+        <v>313</v>
+      </c>
+      <c r="H314" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="I314" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="315" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>296</v>
       </c>
       <c r="B315" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="316" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G315">
+        <v>314</v>
+      </c>
+      <c r="H315" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="I315" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="316" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>297</v>
       </c>
       <c r="B316" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G316">
+        <v>315</v>
+      </c>
+      <c r="H316" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="I316" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="317" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>298</v>
       </c>
       <c r="B317" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="318" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G317">
+        <v>316</v>
+      </c>
+      <c r="H317" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="I317" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="318" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>299</v>
       </c>
       <c r="B318" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="319" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G318">
+        <v>317</v>
+      </c>
+      <c r="H318" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="I318" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="319" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>300</v>
       </c>
       <c r="B319" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="320" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G319">
+        <v>318</v>
+      </c>
+      <c r="H319" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="I319" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="320" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>301</v>
       </c>
       <c r="B320" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="321" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G320">
+        <v>319</v>
+      </c>
+      <c r="H320" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="I320" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="321" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>302</v>
       </c>
       <c r="B321" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="322" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G321">
+        <v>320</v>
+      </c>
+      <c r="H321" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="I321" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="322" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>303</v>
       </c>
       <c r="B322" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="323" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G322">
+        <v>321</v>
+      </c>
+      <c r="H322" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="I322" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="323" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>304</v>
       </c>
       <c r="B323" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="324" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G323">
+        <v>322</v>
+      </c>
+      <c r="H323" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="I323" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="324" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>305</v>
       </c>
       <c r="B324" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="325" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G324">
+        <v>323</v>
+      </c>
+      <c r="H324" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="I324" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="325" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A325">
         <v>108</v>
       </c>
       <c r="B325" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="326" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G325">
+        <v>324</v>
+      </c>
+      <c r="H325" s="1">
+        <v>108</v>
+      </c>
+      <c r="I325" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="326" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A326">
         <v>2008</v>
       </c>
       <c r="B326" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="327" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G326">
+        <v>325</v>
+      </c>
+      <c r="H326" s="1">
+        <v>2008</v>
+      </c>
+      <c r="I326" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="327" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A327">
         <v>207</v>
       </c>
       <c r="B327" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="328" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G327">
+        <v>326</v>
+      </c>
+      <c r="H327" s="1">
+        <v>207</v>
+      </c>
+      <c r="I327" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="328" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A328">
         <v>208</v>
       </c>
       <c r="B328" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="329" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G328">
+        <v>327</v>
+      </c>
+      <c r="H328" s="1">
+        <v>208</v>
+      </c>
+      <c r="I328" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="329" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A329">
         <v>3008</v>
       </c>
       <c r="B329" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="330" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G329">
+        <v>328</v>
+      </c>
+      <c r="H329" s="1">
+        <v>3008</v>
+      </c>
+      <c r="I329" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="330" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A330">
         <v>308</v>
       </c>
       <c r="B330" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="331" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G330">
+        <v>329</v>
+      </c>
+      <c r="H330" s="1">
+        <v>308</v>
+      </c>
+      <c r="I330" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="331" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A331">
         <v>4008</v>
       </c>
       <c r="B331" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="332" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G331">
+        <v>330</v>
+      </c>
+      <c r="H331" s="1">
+        <v>4008</v>
+      </c>
+      <c r="I331" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="332" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A332">
         <v>5008</v>
       </c>
       <c r="B332" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="333" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G332">
+        <v>331</v>
+      </c>
+      <c r="H332" s="1">
+        <v>5008</v>
+      </c>
+      <c r="I332" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="333" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A333">
         <v>508</v>
       </c>
       <c r="B333" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="334" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G333">
+        <v>332</v>
+      </c>
+      <c r="H333" s="1">
+        <v>508</v>
+      </c>
+      <c r="I333" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="334" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>307</v>
       </c>
       <c r="B334" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="335" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G334">
+        <v>333</v>
+      </c>
+      <c r="H334" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="I334" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="335" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>308</v>
       </c>
       <c r="B335" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="336" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G335">
+        <v>334</v>
+      </c>
+      <c r="H335" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="I335" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="336" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>309</v>
       </c>
       <c r="B336" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="337" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G336">
+        <v>335</v>
+      </c>
+      <c r="H336" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="I336" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="337" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>310</v>
       </c>
       <c r="B337" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="338" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G337">
+        <v>336</v>
+      </c>
+      <c r="H337" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="I337" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="338" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>311</v>
       </c>
       <c r="B338" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="339" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G338">
+        <v>337</v>
+      </c>
+      <c r="H338" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="I338" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="339" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>312</v>
       </c>
       <c r="B339" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="340" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G339">
+        <v>338</v>
+      </c>
+      <c r="H339" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="I339" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="340" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A340">
         <v>911</v>
       </c>
       <c r="B340" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="341" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G340">
+        <v>339</v>
+      </c>
+      <c r="H340" s="1">
+        <v>911</v>
+      </c>
+      <c r="I340" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="341" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A341">
         <v>918</v>
       </c>
       <c r="B341" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="342" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G341">
+        <v>340</v>
+      </c>
+      <c r="H341" s="1">
+        <v>918</v>
+      </c>
+      <c r="I341" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="342" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>314</v>
       </c>
       <c r="B342" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="343" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G342">
+        <v>341</v>
+      </c>
+      <c r="H342" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="I342" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="343" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>315</v>
       </c>
       <c r="B343" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="344" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G343">
+        <v>342</v>
+      </c>
+      <c r="H343" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="I343" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="344" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>316</v>
       </c>
       <c r="B344" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="345" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G344">
+        <v>343</v>
+      </c>
+      <c r="H344" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="I344" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="345" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>317</v>
       </c>
       <c r="B345" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="346" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G345">
+        <v>344</v>
+      </c>
+      <c r="H345" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="I345" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="346" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>318</v>
       </c>
       <c r="B346" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="347" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G346">
+        <v>345</v>
+      </c>
+      <c r="H346" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="I346" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="347" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>319</v>
       </c>
       <c r="B347" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="348" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G347">
+        <v>346</v>
+      </c>
+      <c r="H347" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="I347" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="348" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>321</v>
       </c>
       <c r="B348" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="349" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G348">
+        <v>347</v>
+      </c>
+      <c r="H348" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="I348" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="349" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>322</v>
       </c>
       <c r="B349" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="350" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G349">
+        <v>348</v>
+      </c>
+      <c r="H349" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="I349" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="350" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>323</v>
       </c>
       <c r="B350" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="351" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G350">
+        <v>349</v>
+      </c>
+      <c r="H350" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="I350" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="351" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>324</v>
       </c>
       <c r="B351" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="352" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G351">
+        <v>350</v>
+      </c>
+      <c r="H351" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="I351" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="352" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>325</v>
       </c>
       <c r="B352" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="353" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G352">
+        <v>351</v>
+      </c>
+      <c r="H352" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="I352" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="353" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>326</v>
       </c>
       <c r="B353" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="354" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G353">
+        <v>352</v>
+      </c>
+      <c r="H353" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="I353" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="354" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>327</v>
       </c>
       <c r="B354" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="355" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G354">
+        <v>353</v>
+      </c>
+      <c r="H354" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="I354" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="355" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>328</v>
       </c>
       <c r="B355" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="356" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G355">
+        <v>354</v>
+      </c>
+      <c r="H355" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="I355" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="356" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>329</v>
       </c>
       <c r="B356" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="357" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G356">
+        <v>355</v>
+      </c>
+      <c r="H356" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="I356" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="357" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>330</v>
       </c>
       <c r="B357" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="358" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G357">
+        <v>356</v>
+      </c>
+      <c r="H357" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="I357" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="358" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>331</v>
       </c>
       <c r="B358" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="359" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G358">
+        <v>357</v>
+      </c>
+      <c r="H358" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="I358" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="359" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>332</v>
       </c>
       <c r="B359" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="360" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G359">
+        <v>358</v>
+      </c>
+      <c r="H359" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="I359" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="360" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>333</v>
       </c>
       <c r="B360" t="s">
         <v>334</v>
       </c>
-    </row>
-    <row r="361" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G360">
+        <v>359</v>
+      </c>
+      <c r="H360" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="I360" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="361" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>335</v>
       </c>
       <c r="B361" t="s">
         <v>334</v>
       </c>
-    </row>
-    <row r="362" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G361">
+        <v>360</v>
+      </c>
+      <c r="H361" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="I361" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="362" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>336</v>
       </c>
       <c r="B362" t="s">
         <v>334</v>
       </c>
-    </row>
-    <row r="363" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G362">
+        <v>361</v>
+      </c>
+      <c r="H362" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="I362" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="363" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>337</v>
       </c>
       <c r="B363" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="364" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G363">
+        <v>362</v>
+      </c>
+      <c r="H363" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="I363" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="364" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>339</v>
       </c>
       <c r="B364" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="365" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G364">
+        <v>363</v>
+      </c>
+      <c r="H364" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="I364" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="365" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
         <v>340</v>
       </c>
       <c r="B365" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="366" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G365">
+        <v>364</v>
+      </c>
+      <c r="H365" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="I365" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="366" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>341</v>
       </c>
       <c r="B366" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="367" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G366">
+        <v>365</v>
+      </c>
+      <c r="H366" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="I366" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="367" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>342</v>
       </c>
       <c r="B367" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="368" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G367">
+        <v>366</v>
+      </c>
+      <c r="H367" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="I367" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="368" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>343</v>
       </c>
       <c r="B368" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="369" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G368">
+        <v>367</v>
+      </c>
+      <c r="H368" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="I368" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="369" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>344</v>
       </c>
       <c r="B369" t="s">
         <v>345</v>
       </c>
-    </row>
-    <row r="370" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G369">
+        <v>368</v>
+      </c>
+      <c r="H369" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="I369" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="370" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
         <v>346</v>
       </c>
       <c r="B370" t="s">
         <v>345</v>
       </c>
-    </row>
-    <row r="371" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G370">
+        <v>369</v>
+      </c>
+      <c r="H370" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="I370" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="371" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>347</v>
       </c>
       <c r="B371" t="s">
         <v>345</v>
       </c>
-    </row>
-    <row r="372" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G371">
+        <v>370</v>
+      </c>
+      <c r="H371" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="I371" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="372" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
         <v>348</v>
       </c>
       <c r="B372" t="s">
         <v>345</v>
       </c>
-    </row>
-    <row r="373" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G372">
+        <v>371</v>
+      </c>
+      <c r="H372" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="I372" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="373" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
         <v>349</v>
       </c>
       <c r="B373" t="s">
         <v>345</v>
       </c>
-    </row>
-    <row r="374" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G373">
+        <v>372</v>
+      </c>
+      <c r="H373" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="I373" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="374" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
         <v>350</v>
       </c>
       <c r="B374" t="s">
         <v>345</v>
       </c>
-    </row>
-    <row r="375" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G374">
+        <v>373</v>
+      </c>
+      <c r="H374" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="I374" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="375" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
         <v>351</v>
       </c>
       <c r="B375" t="s">
         <v>345</v>
       </c>
-    </row>
-    <row r="376" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G375">
+        <v>374</v>
+      </c>
+      <c r="H375" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="I375" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="376" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
         <v>352</v>
       </c>
       <c r="B376" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="377" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G376">
+        <v>375</v>
+      </c>
+      <c r="H376" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="I376" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="377" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
         <v>354</v>
       </c>
       <c r="B377" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="378" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G377">
+        <v>376</v>
+      </c>
+      <c r="H377" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="I377" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="378" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
         <v>355</v>
       </c>
       <c r="B378" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="379" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G378">
+        <v>377</v>
+      </c>
+      <c r="H378" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="I378" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="379" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
         <v>357</v>
       </c>
       <c r="B379" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="380" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G379">
+        <v>378</v>
+      </c>
+      <c r="H379" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="I379" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="380" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
         <v>358</v>
       </c>
       <c r="B380" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="381" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G380">
+        <v>379</v>
+      </c>
+      <c r="H380" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="I380" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="381" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
         <v>359</v>
       </c>
       <c r="B381" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="382" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G381">
+        <v>380</v>
+      </c>
+      <c r="H381" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="I381" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="382" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
         <v>361</v>
       </c>
       <c r="B382" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="383" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G382">
+        <v>381</v>
+      </c>
+      <c r="H382" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="I382" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="383" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
         <v>362</v>
       </c>
       <c r="B383" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="384" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G383">
+        <v>382</v>
+      </c>
+      <c r="H383" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="I383" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="384" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
         <v>363</v>
       </c>
       <c r="B384" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="385" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G384">
+        <v>383</v>
+      </c>
+      <c r="H384" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="I384" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="385" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
         <v>364</v>
       </c>
       <c r="B385" t="s">
         <v>365</v>
       </c>
-    </row>
-    <row r="386" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G385">
+        <v>384</v>
+      </c>
+      <c r="H385" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="I385" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="386" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
         <v>366</v>
       </c>
       <c r="B386" t="s">
         <v>365</v>
       </c>
-    </row>
-    <row r="387" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G386">
+        <v>385</v>
+      </c>
+      <c r="H386" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="I386" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="387" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
         <v>367</v>
       </c>
       <c r="B387" t="s">
         <v>365</v>
       </c>
-    </row>
-    <row r="388" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G387">
+        <v>386</v>
+      </c>
+      <c r="H387" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="I387" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="388" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
         <v>368</v>
       </c>
       <c r="B388" t="s">
         <v>365</v>
       </c>
-    </row>
-    <row r="389" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G388">
+        <v>387</v>
+      </c>
+      <c r="H388" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="I388" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="389" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
         <v>369</v>
       </c>
       <c r="B389" t="s">
         <v>365</v>
       </c>
-    </row>
-    <row r="390" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G389">
+        <v>388</v>
+      </c>
+      <c r="H389" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="I389" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="390" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
         <v>370</v>
       </c>
       <c r="B390" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="391" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G390">
+        <v>389</v>
+      </c>
+      <c r="H390" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="I390" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="391" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
         <v>372</v>
       </c>
       <c r="B391" t="s">
         <v>373</v>
       </c>
-    </row>
-    <row r="392" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G391">
+        <v>390</v>
+      </c>
+      <c r="H391" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="I391" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="392" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
         <v>374</v>
       </c>
       <c r="B392" t="s">
         <v>373</v>
       </c>
-    </row>
-    <row r="393" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G392">
+        <v>391</v>
+      </c>
+      <c r="H392" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="I392" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="393" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
         <v>375</v>
       </c>
       <c r="B393" t="s">
         <v>373</v>
       </c>
-    </row>
-    <row r="394" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G393">
+        <v>392</v>
+      </c>
+      <c r="H393" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="I393" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="394" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
         <v>376</v>
       </c>
       <c r="B394" t="s">
         <v>373</v>
       </c>
-    </row>
-    <row r="395" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G394">
+        <v>393</v>
+      </c>
+      <c r="H394" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="I394" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="395" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
         <v>377</v>
       </c>
       <c r="B395" t="s">
         <v>373</v>
       </c>
-    </row>
-    <row r="396" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G395">
+        <v>394</v>
+      </c>
+      <c r="H395" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="I395" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="396" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
         <v>378</v>
       </c>
       <c r="B396" t="s">
         <v>373</v>
       </c>
-    </row>
-    <row r="397" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G396">
+        <v>395</v>
+      </c>
+      <c r="H396" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="I396" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="397" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
         <v>379</v>
       </c>
       <c r="B397" t="s">
         <v>373</v>
       </c>
-    </row>
-    <row r="398" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G397">
+        <v>396</v>
+      </c>
+      <c r="H397" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="I397" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="398" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
         <v>380</v>
       </c>
       <c r="B398" t="s">
         <v>373</v>
       </c>
-    </row>
-    <row r="399" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G398">
+        <v>397</v>
+      </c>
+      <c r="H398" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="I398" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="399" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
         <v>381</v>
       </c>
       <c r="B399" t="s">
         <v>373</v>
       </c>
-    </row>
-    <row r="400" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G399">
+        <v>398</v>
+      </c>
+      <c r="H399" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="I399" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="400" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
         <v>382</v>
       </c>
       <c r="B400" t="s">
         <v>373</v>
       </c>
-    </row>
-    <row r="401" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G400">
+        <v>399</v>
+      </c>
+      <c r="H400" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="I400" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="401" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
         <v>383</v>
       </c>
       <c r="B401" t="s">
         <v>373</v>
       </c>
-    </row>
-    <row r="402" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G401">
+        <v>400</v>
+      </c>
+      <c r="H401" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="I401" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="402" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
         <v>384</v>
       </c>
       <c r="B402" t="s">
         <v>373</v>
       </c>
-    </row>
-    <row r="403" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G402">
+        <v>401</v>
+      </c>
+      <c r="H402" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="I402" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="403" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
         <v>385</v>
       </c>
       <c r="B403" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="404" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G403">
+        <v>402</v>
+      </c>
+      <c r="H403" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="I403" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="404" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
         <v>387</v>
       </c>
       <c r="B404" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="405" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G404">
+        <v>403</v>
+      </c>
+      <c r="H404" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="I404" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="405" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
         <v>388</v>
       </c>
       <c r="B405" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="406" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G405">
+        <v>404</v>
+      </c>
+      <c r="H405" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="I405" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="406" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
         <v>389</v>
       </c>
       <c r="B406" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="407" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G406">
+        <v>405</v>
+      </c>
+      <c r="H406" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="I406" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="407" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
         <v>390</v>
       </c>
       <c r="B407" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="408" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G407">
+        <v>406</v>
+      </c>
+      <c r="H407" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="I407" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="408" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
         <v>391</v>
       </c>
       <c r="B408" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="409" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G408">
+        <v>407</v>
+      </c>
+      <c r="H408" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="I408" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="409" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
         <v>392</v>
       </c>
       <c r="B409" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="410" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G409">
+        <v>408</v>
+      </c>
+      <c r="H409" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="I409" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="410" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
         <v>393</v>
       </c>
       <c r="B410" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="411" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G410">
+        <v>409</v>
+      </c>
+      <c r="H410" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="I410" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="411" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
         <v>394</v>
       </c>
       <c r="B411" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="412" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G411">
+        <v>410</v>
+      </c>
+      <c r="H411" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="I411" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="412" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
         <v>395</v>
       </c>
       <c r="B412" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="413" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G412">
+        <v>411</v>
+      </c>
+      <c r="H412" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="I412" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="413" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
         <v>396</v>
       </c>
       <c r="B413" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="414" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G413">
+        <v>412</v>
+      </c>
+      <c r="H413" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="I413" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="414" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
         <v>397</v>
       </c>
       <c r="B414" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="415" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G414">
+        <v>413</v>
+      </c>
+      <c r="H414" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="I414" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="415" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
         <v>398</v>
       </c>
       <c r="B415" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="416" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G415">
+        <v>414</v>
+      </c>
+      <c r="H415" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="I415" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="416" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
         <v>399</v>
       </c>
       <c r="B416" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="417" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G416">
+        <v>415</v>
+      </c>
+      <c r="H416" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="I416" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="417" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
         <v>400</v>
       </c>
       <c r="B417" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="418" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G417">
+        <v>416</v>
+      </c>
+      <c r="H417" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="I417" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="418" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
         <v>401</v>
       </c>
       <c r="B418" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="419" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G418">
+        <v>417</v>
+      </c>
+      <c r="H418" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="I418" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="419" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
         <v>402</v>
       </c>
       <c r="B419" t="s">
         <v>403</v>
       </c>
-    </row>
-    <row r="420" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G419">
+        <v>418</v>
+      </c>
+      <c r="H419" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="I419" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="420" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
         <v>404</v>
       </c>
       <c r="B420" t="s">
         <v>403</v>
       </c>
-    </row>
-    <row r="421" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G420">
+        <v>419</v>
+      </c>
+      <c r="H420" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="I420" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="421" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
         <v>405</v>
       </c>
       <c r="B421" t="s">
         <v>403</v>
       </c>
-    </row>
-    <row r="422" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G421">
+        <v>420</v>
+      </c>
+      <c r="H421" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="I421" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="422" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
         <v>406</v>
       </c>
       <c r="B422" t="s">
         <v>403</v>
       </c>
-    </row>
-    <row r="423" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G422">
+        <v>421</v>
+      </c>
+      <c r="H422" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="I422" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="423" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
         <v>407</v>
       </c>
       <c r="B423" t="s">
         <v>403</v>
       </c>
-    </row>
-    <row r="424" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G423">
+        <v>422</v>
+      </c>
+      <c r="H423" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="I423" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="424" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
         <v>408</v>
       </c>
       <c r="B424" t="s">
         <v>403</v>
       </c>
-    </row>
-    <row r="425" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G424">
+        <v>423</v>
+      </c>
+      <c r="H424" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="I424" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="425" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
         <v>409</v>
       </c>
       <c r="B425" t="s">
         <v>403</v>
       </c>
-    </row>
-    <row r="426" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G425">
+        <v>424</v>
+      </c>
+      <c r="H425" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="I425" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="426" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
         <v>410</v>
       </c>
       <c r="B426" t="s">
+        <v>403</v>
+      </c>
+      <c r="G426">
+        <v>425</v>
+      </c>
+      <c r="H426" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="I426" t="s">
         <v>403</v>
       </c>
     </row>
